--- a/Examples/Cpx_Cpx_Liq_Thermobarometry/Cpx_Liquid_melt_matching/Scruggs_Input.xlsx
+++ b/Examples/Cpx_Cpx_Liq_Thermobarometry/Cpx_Liquid_melt_matching/Scruggs_Input.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - University of Cambridge\Postdoc\PYthonBarometers\ClassicalThermometers-20210114T090546Z-001\ClassicalThermometers\Scruggs_Putirka_Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Examples\Cpx_Cpx_Liq_Thermobarometry\Cpx_Liquid_melt_matching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD9572-E510-45F3-B059-4B77E97D2B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AA0FBE-D042-445E-896C-0AC2389A12C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{27D457FB-75E9-4A74-B695-58CFBD85D44C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{27D457FB-75E9-4A74-B695-58CFBD85D44C}"/>
   </bookViews>
   <sheets>
     <sheet name="Liquids" sheetId="1" r:id="rId1"/>
     <sheet name="Cpxs" sheetId="2" r:id="rId2"/>
     <sheet name="Opxs" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="500"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="154">
   <si>
     <t>Dome A Host (representative)</t>
   </si>
@@ -690,13 +690,16 @@
   <si>
     <t>Cr2O3_Opx</t>
   </si>
+  <si>
+    <t>FeOt_Liq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -814,11 +817,11 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -958,1478 +961,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Liquids!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MgO_Liq</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Liquids!$B$2:$B$16384</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16383"/>
-                <c:pt idx="0">
-                  <c:v>69.67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>69.34</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>56.14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56.11</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>57.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>57.84</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>57.42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>58.18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>53.02</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>53.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>54.72</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56.1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>55.85</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56.47</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>58.01</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58.47</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>53.39</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>53.74</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>53.84</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>55.25</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>56.85</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52.93</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54.71</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>51.88</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>52.814999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>69.83</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>68.739999999999995</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>53.3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>53.49</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53.87</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>53.19</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>54.76</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>55.05</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>55.96</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>68.25</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>56.99</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>56.45</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>53.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>59.51</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>55.15</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54.71</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>57.13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>68.040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>54.02</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>55.64</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>57.73</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>57.94</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>54.19</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>54.11</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>55.21</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>55.52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>58.254999999999995</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>58.03</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>56.334999999999994</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>58.63</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>54.85</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>55.27</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>67.48</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59.61</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>55.56</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>56.484999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>56.21</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>55.724999999999994</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>56.879999999999995</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>58.06</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>59.76</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>59.49</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>55.86</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>56.03</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>55.754999999999995</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>56.37</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>56.12</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>57.105000000000004</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>53.73</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>55.09</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>58.84</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>59.47</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>54.32</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>56.2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>57.35</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>57.19</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>67.540000000000006</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>60.44</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>60.26</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>56.6</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>56.76</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>56.620000000000005</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>56.75</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>58.46</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>57.46</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>57.07</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>58.47</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>55.949999999999996</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>56.79</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>56.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Liquids!$C$2:$C$16384</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="16383"/>
-                <c:pt idx="0">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.77</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.59</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.54</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.65500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.67500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.61</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.81</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.60499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.47</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.67</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.64500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.56999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.62</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.63500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.68</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.43</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.66500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.64500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.64</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.66</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.79999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.73</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.68</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-812B-4594-ABC9-73A1E5F92BEE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="534536656"/>
-        <c:axId val="534532816"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="534536656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="50"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="534532816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="534532816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="534536656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>73342</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>21907</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B308E72-D490-4AEB-BECF-CF758A1AEE9E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2729,15 +1260,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1D6ED17-FC78-4AA8-A916-B546751A88F7}">
-  <dimension ref="A1:K16384"/>
+  <dimension ref="A1:L16384"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B27" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="32.4" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -2754,25 +1285,28 @@
         <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2789,25 +1323,29 @@
         <v>2.94</v>
       </c>
       <c r="F2" s="4">
+        <f>0.8998*E2</f>
+        <v>2.6454119999999999</v>
+      </c>
+      <c r="G2" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G2" s="4">
+      <c r="H2" s="4">
         <v>1.36</v>
       </c>
-      <c r="H2" s="4">
+      <c r="I2" s="4">
         <v>3.27</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>4.1399999999999997</v>
       </c>
-      <c r="J2" s="4">
+      <c r="K2" s="4">
         <v>2.67</v>
       </c>
-      <c r="K2" s="4">
+      <c r="L2" s="4">
         <v>0.12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2824,25 +1362,29 @@
         <v>2.92</v>
       </c>
       <c r="F3" s="4">
+        <f t="shared" ref="F3:F66" si="0">0.8998*E3</f>
+        <v>2.6274160000000002</v>
+      </c>
+      <c r="G3" s="4">
         <v>0.06</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>1.3900000000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="I3" s="4">
         <v>3.2549999999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>4.1899999999999995</v>
       </c>
-      <c r="J3" s="4">
+      <c r="K3" s="4">
         <v>2.69</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>0.12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2858,26 +1400,30 @@
       <c r="E4" s="5">
         <v>7.4</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6585200000000002</v>
+      </c>
+      <c r="G4" s="5">
         <v>0.12</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>4.08</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>8.08</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <v>3.23</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K4" s="5">
         <v>1.24</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L4" s="5">
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2893,26 +1439,30 @@
       <c r="E5" s="5">
         <v>7.37</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>6.631526</v>
+      </c>
+      <c r="G5" s="5">
         <v>0.12</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>4.17</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>8</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <v>3.19</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>1.28</v>
       </c>
-      <c r="K5" s="5">
+      <c r="L5" s="5">
         <v>0.23599999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2928,26 +1478,30 @@
       <c r="E6" s="5">
         <v>6.75</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0736500000000007</v>
+      </c>
+      <c r="G6" s="5">
         <v>0.12</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>3.97</v>
       </c>
-      <c r="H6" s="5">
+      <c r="I6" s="5">
         <v>7.73</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>3.21</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>1.44</v>
       </c>
-      <c r="K6" s="5">
+      <c r="L6" s="5">
         <v>0.106</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2963,26 +1517,30 @@
       <c r="E7" s="5">
         <v>6.87</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1816260000000005</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.12</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>3.97</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>7.82</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>3.13</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>1.42</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>0.10199999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -2998,26 +1556,30 @@
       <c r="E8" s="5">
         <v>7.1150000000000002</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4020770000000002</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.12</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>4.2</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>8.0850000000000009</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <v>3.0599999999999996</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>1.395</v>
       </c>
-      <c r="K8" s="5">
+      <c r="L8" s="5">
         <v>9.6500000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3033,26 +1595,30 @@
       <c r="E9" s="5">
         <v>6.8</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1186400000000001</v>
+      </c>
+      <c r="G9" s="5">
         <v>0.12</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>3.96</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I9" s="5">
         <v>7.6</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <v>3.09</v>
       </c>
-      <c r="J9" s="5">
+      <c r="K9" s="5">
         <v>1.53</v>
       </c>
-      <c r="K9" s="5">
+      <c r="L9" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3068,26 +1634,30 @@
       <c r="E10" s="5">
         <v>8.4700000000000006</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6213060000000006</v>
+      </c>
+      <c r="G10" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>4.97</v>
       </c>
-      <c r="H10" s="5">
+      <c r="I10" s="5">
         <v>9.59</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <v>2.82</v>
       </c>
-      <c r="J10" s="5">
+      <c r="K10" s="5">
         <v>0.67</v>
       </c>
-      <c r="K10" s="5">
+      <c r="L10" s="5">
         <v>0.105</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -3103,26 +1673,30 @@
       <c r="E11" s="5">
         <v>8.27</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4413460000000002</v>
+      </c>
+      <c r="G11" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>4.9800000000000004</v>
       </c>
-      <c r="H11" s="5">
+      <c r="I11" s="5">
         <v>9.5500000000000007</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <v>2.89</v>
       </c>
-      <c r="J11" s="5">
+      <c r="K11" s="5">
         <v>0.68</v>
       </c>
-      <c r="K11" s="5">
+      <c r="L11" s="5">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -3138,26 +1712,30 @@
       <c r="E12" s="5">
         <v>7.66</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>6.892468</v>
+      </c>
+      <c r="G12" s="5">
         <v>0.13</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>4.88</v>
       </c>
-      <c r="H12" s="5">
+      <c r="I12" s="5">
         <v>9.18</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <v>2.63</v>
       </c>
-      <c r="J12" s="5">
+      <c r="K12" s="5">
         <v>1.08</v>
       </c>
-      <c r="K12" s="5">
+      <c r="L12" s="5">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -3173,26 +1751,30 @@
       <c r="E13" s="5">
         <v>7.33</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5955340000000007</v>
+      </c>
+      <c r="G13" s="5">
         <v>0.13</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>4.53</v>
       </c>
-      <c r="H13" s="5">
+      <c r="I13" s="5">
         <v>8.66</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <v>2.75</v>
       </c>
-      <c r="J13" s="5">
+      <c r="K13" s="5">
         <v>1.23</v>
       </c>
-      <c r="K13" s="5">
+      <c r="L13" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -3208,26 +1790,30 @@
       <c r="E14" s="5">
         <v>7.57</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8114860000000004</v>
+      </c>
+      <c r="G14" s="5">
         <v>0.13</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>4.3600000000000003</v>
       </c>
-      <c r="H14" s="5">
+      <c r="I14" s="5">
         <v>8.44</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <v>3.09</v>
       </c>
-      <c r="J14" s="5">
+      <c r="K14" s="5">
         <v>1.05</v>
       </c>
-      <c r="K14" s="5">
+      <c r="L14" s="5">
         <v>0.109</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -3243,26 +1829,30 @@
       <c r="E15" s="5">
         <v>7.5</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7484999999999999</v>
+      </c>
+      <c r="G15" s="5">
         <v>0.13</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>4.3</v>
       </c>
-      <c r="H15" s="5">
+      <c r="I15" s="5">
         <v>8.5399999999999991</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <v>3.13</v>
       </c>
-      <c r="J15" s="5">
+      <c r="K15" s="5">
         <v>0.95</v>
       </c>
-      <c r="K15" s="5">
+      <c r="L15" s="5">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -3278,26 +1868,30 @@
       <c r="E16" s="5">
         <v>6.77</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0916459999999999</v>
+      </c>
+      <c r="G16" s="5">
         <v>0.12</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>4.09</v>
       </c>
-      <c r="H16" s="5">
+      <c r="I16" s="5">
         <v>7.69</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <v>3.25</v>
       </c>
-      <c r="J16" s="5">
+      <c r="K16" s="5">
         <v>1.27</v>
       </c>
-      <c r="K16" s="5">
+      <c r="L16" s="5">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3313,26 +1907,30 @@
       <c r="E17" s="5">
         <v>6.63</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>5.9656739999999999</v>
+      </c>
+      <c r="G17" s="5">
         <v>0.12</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>3.93</v>
       </c>
-      <c r="H17" s="5">
+      <c r="I17" s="5">
         <v>7.59</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <v>3.25</v>
       </c>
-      <c r="J17" s="5">
+      <c r="K17" s="5">
         <v>1.3</v>
       </c>
-      <c r="K17" s="5">
+      <c r="L17" s="5">
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3348,26 +1946,30 @@
       <c r="E18" s="5">
         <v>8.4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>7.558320000000001</v>
+      </c>
+      <c r="G18" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>4.93</v>
       </c>
-      <c r="H18" s="5">
+      <c r="I18" s="5">
         <v>9.64</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <v>2.94</v>
       </c>
-      <c r="J18" s="5">
+      <c r="K18" s="5">
         <v>0.65</v>
       </c>
-      <c r="K18" s="5">
+      <c r="L18" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -3383,26 +1985,30 @@
       <c r="E19" s="5">
         <v>8.27</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4413460000000002</v>
+      </c>
+      <c r="G19" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>4.79</v>
       </c>
-      <c r="H19" s="5">
+      <c r="I19" s="5">
         <v>9.42</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <v>2.87</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>0.74</v>
       </c>
-      <c r="K19" s="5">
+      <c r="L19" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -3418,26 +2024,30 @@
       <c r="E20" s="5">
         <v>8.18</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3603639999999997</v>
+      </c>
+      <c r="G20" s="5">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>5.18</v>
       </c>
-      <c r="H20" s="5">
+      <c r="I20" s="5">
         <v>9.67</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>2.63</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>0.96</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -3453,26 +2063,30 @@
       <c r="E21" s="5">
         <v>7.91</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1174180000000007</v>
+      </c>
+      <c r="G21" s="5">
         <v>0.13</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>4.66</v>
       </c>
-      <c r="H21" s="5">
+      <c r="I21" s="5">
         <v>8.8800000000000008</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <v>2.73</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K21" s="5">
+      <c r="L21" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -3488,26 +2102,30 @@
       <c r="E22" s="5">
         <v>7.25</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5235500000000002</v>
+      </c>
+      <c r="G22" s="5">
         <v>0.12</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>4.18</v>
       </c>
-      <c r="H22" s="5">
+      <c r="I22" s="5">
         <v>8.06</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <v>3.04</v>
       </c>
-      <c r="J22" s="5">
+      <c r="K22" s="5">
         <v>1.35</v>
       </c>
-      <c r="K22" s="5">
+      <c r="L22" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -3523,26 +2141,30 @@
       <c r="E23" s="5">
         <v>8.33</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4953340000000006</v>
+      </c>
+      <c r="G23" s="5">
         <v>0.13</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>5.08</v>
       </c>
-      <c r="H23" s="5">
+      <c r="I23" s="5">
         <v>9.44</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <v>3.09</v>
       </c>
-      <c r="J23" s="5">
+      <c r="K23" s="5">
         <v>1</v>
       </c>
-      <c r="K23" s="5">
+      <c r="L23" s="5">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3558,26 +2180,30 @@
       <c r="E24" s="5">
         <v>8.18</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3603639999999997</v>
+      </c>
+      <c r="G24" s="5">
         <v>0.13</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>4.47</v>
       </c>
-      <c r="H24" s="5">
+      <c r="I24" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <v>3.22</v>
       </c>
-      <c r="J24" s="5">
+      <c r="K24" s="5">
         <v>1.21</v>
       </c>
-      <c r="K24" s="5">
+      <c r="L24" s="5">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3593,26 +2219,30 @@
       <c r="E25" s="5">
         <v>8.25</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4233500000000001</v>
+      </c>
+      <c r="G25" s="5">
         <v>0.125</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>5.7050000000000001</v>
       </c>
-      <c r="H25" s="5">
+      <c r="I25" s="5">
         <v>10.305</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <v>2.74</v>
       </c>
-      <c r="J25" s="5">
+      <c r="K25" s="5">
         <v>0.77500000000000002</v>
       </c>
-      <c r="K25" s="5">
+      <c r="L25" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3628,26 +2258,30 @@
       <c r="E26" s="5">
         <v>8.2850000000000001</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4548430000000003</v>
+      </c>
+      <c r="G26" s="5">
         <v>0.125</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>5.3550000000000004</v>
       </c>
-      <c r="H26" s="5">
+      <c r="I26" s="5">
         <v>9.93</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <v>2.7800000000000002</v>
       </c>
-      <c r="J26" s="5">
+      <c r="K26" s="5">
         <v>0.64</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L26" s="5">
         <v>9.0499999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -3663,26 +2297,30 @@
       <c r="E27" s="6">
         <v>2.99</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6904020000000002</v>
+      </c>
+      <c r="G27" s="6">
         <v>0.06</v>
       </c>
-      <c r="G27" s="6">
+      <c r="H27" s="6">
         <v>1.365</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>3.17</v>
       </c>
-      <c r="I27" s="6">
+      <c r="J27" s="6">
         <v>4.12</v>
       </c>
-      <c r="J27" s="6">
+      <c r="K27" s="6">
         <v>2.665</v>
       </c>
-      <c r="K27" s="6">
+      <c r="L27" s="6">
         <v>0.114</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -3698,26 +2336,30 @@
       <c r="E28" s="6">
         <v>2.97</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6724060000000005</v>
+      </c>
+      <c r="G28" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G28" s="6">
+      <c r="H28" s="6">
         <v>1.54</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>3.19</v>
       </c>
-      <c r="I28" s="6">
+      <c r="J28" s="6">
         <v>4.49</v>
       </c>
-      <c r="J28" s="6">
+      <c r="K28" s="6">
         <v>2.52</v>
       </c>
-      <c r="K28" s="6">
+      <c r="L28" s="6">
         <v>0.111</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -3733,26 +2375,30 @@
       <c r="E29" s="7">
         <v>8.35</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5133299999999998</v>
+      </c>
+      <c r="G29" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G29" s="7">
+      <c r="H29" s="7">
         <v>4.84</v>
       </c>
-      <c r="H29" s="7">
+      <c r="I29" s="7">
         <v>10.11</v>
       </c>
-      <c r="I29" s="7">
+      <c r="J29" s="7">
         <v>2.89</v>
       </c>
-      <c r="J29" s="7">
+      <c r="K29" s="7">
         <v>0.79</v>
       </c>
-      <c r="K29" s="7">
+      <c r="L29" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -3768,26 +2414,30 @@
       <c r="E30" s="7">
         <v>8.44</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5943119999999995</v>
+      </c>
+      <c r="G30" s="7">
         <v>0.15</v>
       </c>
-      <c r="G30" s="7">
+      <c r="H30" s="7">
         <v>4.78</v>
       </c>
-      <c r="H30" s="7">
+      <c r="I30" s="7">
         <v>10.1</v>
       </c>
-      <c r="I30" s="7">
+      <c r="J30" s="7">
         <v>2.91</v>
       </c>
-      <c r="J30" s="7">
+      <c r="K30" s="7">
         <v>0.85</v>
       </c>
-      <c r="K30" s="7">
+      <c r="L30" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -3803,26 +2453,30 @@
       <c r="E31" s="7">
         <v>8.39</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="4">
+        <f t="shared" si="0"/>
+        <v>7.549322000000001</v>
+      </c>
+      <c r="G31" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G31" s="7">
+      <c r="H31" s="7">
         <v>4.67</v>
       </c>
-      <c r="H31" s="7">
+      <c r="I31" s="7">
         <v>9.9700000000000006</v>
       </c>
-      <c r="I31" s="7">
+      <c r="J31" s="7">
         <v>2.94</v>
       </c>
-      <c r="J31" s="7">
+      <c r="K31" s="7">
         <v>0.94</v>
       </c>
-      <c r="K31" s="7">
+      <c r="L31" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -3838,26 +2492,30 @@
       <c r="E32" s="7">
         <v>8.35</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5133299999999998</v>
+      </c>
+      <c r="G32" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G32" s="7">
+      <c r="H32" s="7">
         <v>4.96</v>
       </c>
-      <c r="H32" s="7">
+      <c r="I32" s="7">
         <v>10.07</v>
       </c>
-      <c r="I32" s="7">
+      <c r="J32" s="7">
         <v>2.84</v>
       </c>
-      <c r="J32" s="7">
+      <c r="K32" s="7">
         <v>0.97</v>
       </c>
-      <c r="K32" s="7">
+      <c r="L32" s="7">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -3873,26 +2531,30 @@
       <c r="E33" s="7">
         <v>7.94</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1444120000000009</v>
+      </c>
+      <c r="G33" s="7">
         <v>0.13</v>
       </c>
-      <c r="G33" s="7">
+      <c r="H33" s="7">
         <v>4.28</v>
       </c>
-      <c r="H33" s="7">
+      <c r="I33" s="7">
         <v>9.25</v>
       </c>
-      <c r="I33" s="7">
+      <c r="J33" s="7">
         <v>3.02</v>
       </c>
-      <c r="J33" s="7">
+      <c r="K33" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K33" s="7">
+      <c r="L33" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -3908,26 +2570,30 @@
       <c r="E34" s="7">
         <v>8.0299999999999994</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2253939999999997</v>
+      </c>
+      <c r="G34" s="7">
         <v>0.13</v>
       </c>
-      <c r="G34" s="7">
+      <c r="H34" s="7">
         <v>4.45</v>
       </c>
-      <c r="H34" s="7">
+      <c r="I34" s="7">
         <v>8.91</v>
       </c>
-      <c r="I34" s="7">
+      <c r="J34" s="7">
         <v>3.04</v>
       </c>
-      <c r="J34" s="7">
+      <c r="K34" s="7">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K34" s="7">
+      <c r="L34" s="7">
         <v>9.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -3943,26 +2609,30 @@
       <c r="E35" s="7">
         <v>7.76</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9824479999999998</v>
+      </c>
+      <c r="G35" s="7">
         <v>0.13</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="7">
         <v>4.0599999999999996</v>
       </c>
-      <c r="H35" s="7">
+      <c r="I35" s="7">
         <v>8.27</v>
       </c>
-      <c r="I35" s="7">
+      <c r="J35" s="7">
         <v>3.17</v>
       </c>
-      <c r="J35" s="7">
+      <c r="K35" s="7">
         <v>1.32</v>
       </c>
-      <c r="K35" s="7">
+      <c r="L35" s="7">
         <v>0.104</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -3978,26 +2648,30 @@
       <c r="E36" s="6">
         <v>3.6</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2392800000000004</v>
+      </c>
+      <c r="G36" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G36" s="6">
+      <c r="H36" s="6">
         <v>1.68</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>3.6</v>
       </c>
-      <c r="I36" s="6">
+      <c r="J36" s="6">
         <v>4.1100000000000003</v>
       </c>
-      <c r="J36" s="6">
+      <c r="K36" s="6">
         <v>2.64</v>
       </c>
-      <c r="K36" s="6">
+      <c r="L36" s="6">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -4013,26 +2687,30 @@
       <c r="E37" s="6">
         <v>7.1</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="4">
+        <f t="shared" si="0"/>
+        <v>6.3885800000000001</v>
+      </c>
+      <c r="G37" s="6">
         <v>0.12</v>
       </c>
-      <c r="G37" s="6">
+      <c r="H37" s="6">
         <v>4.2699999999999996</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>8.1300000000000008</v>
       </c>
-      <c r="I37" s="6">
+      <c r="J37" s="6">
         <v>3.34</v>
       </c>
-      <c r="J37" s="6">
+      <c r="K37" s="6">
         <v>1.44</v>
       </c>
-      <c r="K37" s="6">
+      <c r="L37" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -4048,26 +2726,30 @@
       <c r="E38" s="7">
         <v>7.73</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9554540000000005</v>
+      </c>
+      <c r="G38" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G38" s="7">
+      <c r="H38" s="7">
         <v>4.1900000000000004</v>
       </c>
-      <c r="H38" s="7">
+      <c r="I38" s="7">
         <v>8.91</v>
       </c>
-      <c r="I38" s="7">
+      <c r="J38" s="7">
         <v>3.15</v>
       </c>
-      <c r="J38" s="7">
+      <c r="K38" s="7">
         <v>1.06</v>
       </c>
-      <c r="K38" s="7">
+      <c r="L38" s="7">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -4083,26 +2765,30 @@
       <c r="E39" s="7">
         <v>8.27</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="4">
+        <f t="shared" si="0"/>
+        <v>7.4413460000000002</v>
+      </c>
+      <c r="G39" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G39" s="7">
+      <c r="H39" s="7">
         <v>5.04</v>
       </c>
-      <c r="H39" s="7">
+      <c r="I39" s="7">
         <v>9.7200000000000006</v>
       </c>
-      <c r="I39" s="7">
+      <c r="J39" s="7">
         <v>2.85</v>
       </c>
-      <c r="J39" s="7">
+      <c r="K39" s="7">
         <v>0.85</v>
       </c>
-      <c r="K39" s="7">
+      <c r="L39" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4118,26 +2804,30 @@
       <c r="E40" s="7">
         <v>8.06</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2523880000000007</v>
+      </c>
+      <c r="G40" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G40" s="7">
+      <c r="H40" s="7">
         <v>4.72</v>
       </c>
-      <c r="H40" s="7">
+      <c r="I40" s="7">
         <v>9.07</v>
       </c>
-      <c r="I40" s="7">
+      <c r="J40" s="7">
         <v>3.02</v>
       </c>
-      <c r="J40" s="7">
+      <c r="K40" s="7">
         <v>1.02</v>
       </c>
-      <c r="K40" s="7">
+      <c r="L40" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -4153,26 +2843,30 @@
       <c r="E41" s="7">
         <v>6.41</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7677180000000003</v>
+      </c>
+      <c r="G41" s="7">
         <v>0.11</v>
       </c>
-      <c r="G41" s="7">
+      <c r="H41" s="7">
         <v>3.63</v>
       </c>
-      <c r="H41" s="7">
+      <c r="I41" s="7">
         <v>7.26</v>
       </c>
-      <c r="I41" s="7">
+      <c r="J41" s="7">
         <v>3.34</v>
       </c>
-      <c r="J41" s="7">
+      <c r="K41" s="7">
         <v>1.54</v>
       </c>
-      <c r="K41" s="7">
+      <c r="L41" s="7">
         <v>9.6000000000000002E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -4188,26 +2882,30 @@
       <c r="E42" s="7">
         <v>7.75</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9734500000000006</v>
+      </c>
+      <c r="G42" s="7">
         <v>0.13</v>
       </c>
-      <c r="G42" s="7">
+      <c r="H42" s="7">
         <v>4.8099999999999996</v>
       </c>
-      <c r="H42" s="7">
+      <c r="I42" s="7">
         <v>9.09</v>
       </c>
-      <c r="I42" s="7">
+      <c r="J42" s="7">
         <v>3.01</v>
       </c>
-      <c r="J42" s="7">
+      <c r="K42" s="7">
         <v>1.25</v>
       </c>
-      <c r="K42" s="7">
+      <c r="L42" s="7">
         <v>7.5999999999999998E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -4223,26 +2921,30 @@
       <c r="E43" s="7">
         <v>7.84</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0544320000000003</v>
+      </c>
+      <c r="G43" s="7">
         <v>0.13</v>
       </c>
-      <c r="G43" s="7">
+      <c r="H43" s="7">
         <v>4.91</v>
       </c>
-      <c r="H43" s="7">
+      <c r="I43" s="7">
         <v>9.2100000000000009</v>
       </c>
-      <c r="I43" s="7">
+      <c r="J43" s="7">
         <v>2.95</v>
       </c>
-      <c r="J43" s="7">
+      <c r="K43" s="7">
         <v>1.22</v>
       </c>
-      <c r="K43" s="7">
+      <c r="L43" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -4258,26 +2960,30 @@
       <c r="E44" s="7">
         <v>6.98</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2806040000000003</v>
+      </c>
+      <c r="G44" s="7">
         <v>0.11</v>
       </c>
-      <c r="G44" s="7">
+      <c r="H44" s="7">
         <v>4.33</v>
       </c>
-      <c r="H44" s="7">
+      <c r="I44" s="7">
         <v>8.09</v>
       </c>
-      <c r="I44" s="7">
+      <c r="J44" s="7">
         <v>3.18</v>
       </c>
-      <c r="J44" s="7">
+      <c r="K44" s="7">
         <v>1.46</v>
       </c>
-      <c r="K44" s="7">
+      <c r="L44" s="7">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -4293,26 +2999,30 @@
       <c r="E45" s="6">
         <v>3.49</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="4">
+        <f t="shared" si="0"/>
+        <v>3.1403020000000001</v>
+      </c>
+      <c r="G45" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G45" s="6">
+      <c r="H45" s="6">
         <v>1.62</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <v>3.68</v>
       </c>
-      <c r="I45" s="6">
+      <c r="J45" s="6">
         <v>4.13</v>
       </c>
-      <c r="J45" s="6">
+      <c r="K45" s="6">
         <v>2.58</v>
       </c>
-      <c r="K45" s="6">
+      <c r="L45" s="6">
         <v>0.109</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -4328,26 +3038,30 @@
       <c r="E46" s="6">
         <v>7.95</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1534100000000009</v>
+      </c>
+      <c r="G46" s="6">
         <v>0.13</v>
       </c>
-      <c r="G46" s="6">
+      <c r="H46" s="6">
         <v>4.92</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I46" s="6">
+      <c r="J46" s="6">
         <v>2.91</v>
       </c>
-      <c r="J46" s="6">
+      <c r="K46" s="6">
         <v>0.78</v>
       </c>
-      <c r="K46" s="6">
+      <c r="L46" s="6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -4363,26 +3077,30 @@
       <c r="E47" s="7">
         <v>7.56</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="4">
+        <f t="shared" si="0"/>
+        <v>6.8024880000000003</v>
+      </c>
+      <c r="G47" s="7">
         <v>0.13</v>
       </c>
-      <c r="G47" s="7">
+      <c r="H47" s="7">
         <v>4.5199999999999996</v>
       </c>
-      <c r="H47" s="7">
+      <c r="I47" s="7">
         <v>9.02</v>
       </c>
-      <c r="I47" s="7">
+      <c r="J47" s="7">
         <v>2.94</v>
       </c>
-      <c r="J47" s="7">
+      <c r="K47" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K47" s="7">
+      <c r="L47" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -4398,26 +3116,30 @@
       <c r="E48" s="7">
         <v>6.9</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2086200000000007</v>
+      </c>
+      <c r="G48" s="7">
         <v>0.12</v>
       </c>
-      <c r="G48" s="7">
+      <c r="H48" s="7">
         <v>3.97</v>
       </c>
-      <c r="H48" s="7">
+      <c r="I48" s="7">
         <v>8.02</v>
       </c>
-      <c r="I48" s="7">
+      <c r="J48" s="7">
         <v>3.35</v>
       </c>
-      <c r="J48" s="7">
+      <c r="K48" s="7">
         <v>1.26</v>
       </c>
-      <c r="K48" s="7">
+      <c r="L48" s="7">
         <v>0.09</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -4433,26 +3155,30 @@
       <c r="E49" s="7">
         <v>6.76</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0826479999999998</v>
+      </c>
+      <c r="G49" s="7">
         <v>0.12</v>
       </c>
-      <c r="G49" s="7">
+      <c r="H49" s="7">
         <v>3.79</v>
       </c>
-      <c r="H49" s="7">
+      <c r="I49" s="7">
         <v>7.88</v>
       </c>
-      <c r="I49" s="7">
+      <c r="J49" s="7">
         <v>3.38</v>
       </c>
-      <c r="J49" s="7">
+      <c r="K49" s="7">
         <v>1.33</v>
       </c>
-      <c r="K49" s="7">
+      <c r="L49" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -4468,26 +3194,30 @@
       <c r="E50" s="7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8282599999999993</v>
+      </c>
+      <c r="G50" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G50" s="7">
+      <c r="H50" s="7">
         <v>3.96</v>
       </c>
-      <c r="H50" s="7">
+      <c r="I50" s="7">
         <v>9.01</v>
       </c>
-      <c r="I50" s="7">
+      <c r="J50" s="7">
         <v>3.15</v>
       </c>
-      <c r="J50" s="7">
+      <c r="K50" s="7">
         <v>0.76</v>
       </c>
-      <c r="K50" s="7">
+      <c r="L50" s="7">
         <v>0.113</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -4503,26 +3233,30 @@
       <c r="E51" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="4">
+        <f t="shared" si="0"/>
+        <v>7.9182400000000008</v>
+      </c>
+      <c r="G51" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G51" s="7">
+      <c r="H51" s="7">
         <v>3.76</v>
       </c>
-      <c r="H51" s="7">
+      <c r="I51" s="7">
         <v>8.83</v>
       </c>
-      <c r="I51" s="7">
+      <c r="J51" s="7">
         <v>3.06</v>
       </c>
-      <c r="J51" s="7">
+      <c r="K51" s="7">
         <v>0.8</v>
       </c>
-      <c r="K51" s="7">
+      <c r="L51" s="7">
         <v>0.125</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -4538,26 +3272,30 @@
       <c r="E52" s="7">
         <v>8.64</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7742720000000007</v>
+      </c>
+      <c r="G52" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G52" s="7">
+      <c r="H52" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H52" s="7">
+      <c r="I52" s="7">
         <v>8.4</v>
       </c>
-      <c r="I52" s="7">
+      <c r="J52" s="7">
         <v>3.43</v>
       </c>
-      <c r="J52" s="7">
+      <c r="K52" s="7">
         <v>0.94</v>
       </c>
-      <c r="K52" s="7">
+      <c r="L52" s="7">
         <v>0.105</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
@@ -4573,26 +3311,30 @@
       <c r="E53" s="7">
         <v>8.69</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8192620000000002</v>
+      </c>
+      <c r="G53" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G53" s="7">
+      <c r="H53" s="7">
         <v>3.86</v>
       </c>
-      <c r="H53" s="7">
+      <c r="I53" s="7">
         <v>8.35</v>
       </c>
-      <c r="I53" s="7">
+      <c r="J53" s="7">
         <v>3.48</v>
       </c>
-      <c r="J53" s="7">
+      <c r="K53" s="7">
         <v>0.94</v>
       </c>
-      <c r="K53" s="7">
+      <c r="L53" s="7">
         <v>0.105</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
@@ -4608,26 +3350,30 @@
       <c r="E54" s="8">
         <v>6.4399999999999995</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7947119999999996</v>
+      </c>
+      <c r="G54" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G54" s="8">
+      <c r="H54" s="8">
         <v>3.84</v>
       </c>
-      <c r="H54" s="8">
+      <c r="I54" s="8">
         <v>7.2550000000000008</v>
       </c>
-      <c r="I54" s="8">
+      <c r="J54" s="8">
         <v>3.585</v>
       </c>
-      <c r="J54" s="8">
+      <c r="K54" s="8">
         <v>1.67</v>
       </c>
-      <c r="K54" s="8">
+      <c r="L54" s="8">
         <v>0.183</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
@@ -4643,26 +3389,30 @@
       <c r="E55" s="7">
         <v>6.46</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8127080000000007</v>
+      </c>
+      <c r="G55" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G55" s="7">
+      <c r="H55" s="7">
         <v>3.83</v>
       </c>
-      <c r="H55" s="7">
+      <c r="I55" s="7">
         <v>7.25</v>
       </c>
-      <c r="I55" s="7">
+      <c r="J55" s="7">
         <v>3.6</v>
       </c>
-      <c r="J55" s="7">
+      <c r="K55" s="7">
         <v>1.61</v>
       </c>
-      <c r="K55" s="7">
+      <c r="L55" s="7">
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
@@ -4678,26 +3428,30 @@
       <c r="E56" s="8">
         <v>7.4049999999999994</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6630189999999994</v>
+      </c>
+      <c r="G56" s="8">
         <v>0.125</v>
       </c>
-      <c r="G56" s="8">
+      <c r="H56" s="8">
         <v>4.0149999999999997</v>
       </c>
-      <c r="H56" s="8">
+      <c r="I56" s="8">
         <v>8.625</v>
       </c>
-      <c r="I56" s="8">
+      <c r="J56" s="8">
         <v>3.0649999999999999</v>
       </c>
-      <c r="J56" s="8">
+      <c r="K56" s="8">
         <v>1.28</v>
       </c>
-      <c r="K56" s="8">
+      <c r="L56" s="8">
         <v>8.5499999999999993E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -4713,26 +3467,30 @@
       <c r="E57" s="8">
         <v>7.7450000000000001</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9689510000000006</v>
+      </c>
+      <c r="G57" s="8">
         <v>0.13</v>
       </c>
-      <c r="G57" s="8">
+      <c r="H57" s="8">
         <v>4.2750000000000004</v>
       </c>
-      <c r="H57" s="8">
+      <c r="I57" s="8">
         <v>8.6649999999999991</v>
       </c>
-      <c r="I57" s="8">
+      <c r="J57" s="8">
         <v>3.02</v>
       </c>
-      <c r="J57" s="8">
+      <c r="K57" s="8">
         <v>1.1749999999999998</v>
       </c>
-      <c r="K57" s="8">
+      <c r="L57" s="8">
         <v>8.299999999999999E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -4748,26 +3506,30 @@
       <c r="E58" s="7">
         <v>7.99</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1894020000000003</v>
+      </c>
+      <c r="G58" s="7">
         <v>0.13</v>
       </c>
-      <c r="G58" s="7">
+      <c r="H58" s="7">
         <v>4.6100000000000003</v>
       </c>
-      <c r="H58" s="7">
+      <c r="I58" s="7">
         <v>9.19</v>
       </c>
-      <c r="I58" s="7">
+      <c r="J58" s="7">
         <v>2.92</v>
       </c>
-      <c r="J58" s="7">
+      <c r="K58" s="7">
         <v>0.95</v>
       </c>
-      <c r="K58" s="7">
+      <c r="L58" s="7">
         <v>8.8999999999999996E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -4783,26 +3545,30 @@
       <c r="E59" s="7">
         <v>7.74</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9644520000000005</v>
+      </c>
+      <c r="G59" s="7">
         <v>0.13</v>
       </c>
-      <c r="G59" s="7">
+      <c r="H59" s="7">
         <v>4.5599999999999996</v>
       </c>
-      <c r="H59" s="7">
+      <c r="I59" s="7">
         <v>8.98</v>
       </c>
-      <c r="I59" s="7">
+      <c r="J59" s="7">
         <v>2.97</v>
       </c>
-      <c r="J59" s="7">
+      <c r="K59" s="7">
         <v>1</v>
       </c>
-      <c r="K59" s="7">
+      <c r="L59" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
@@ -4818,26 +3584,30 @@
       <c r="E60" s="6">
         <v>3.6</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="4">
+        <f t="shared" si="0"/>
+        <v>3.2392800000000004</v>
+      </c>
+      <c r="G60" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G60" s="6">
+      <c r="H60" s="6">
         <v>1.7</v>
       </c>
-      <c r="H60" s="6">
+      <c r="I60" s="6">
         <v>3.87</v>
       </c>
-      <c r="I60" s="6">
+      <c r="J60" s="6">
         <v>4.09</v>
       </c>
-      <c r="J60" s="6">
+      <c r="K60" s="6">
         <v>2.52</v>
       </c>
-      <c r="K60" s="6">
+      <c r="L60" s="6">
         <v>0.10100000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -4853,26 +3623,30 @@
       <c r="E61" s="6">
         <v>5.72</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61" s="4">
+        <f t="shared" si="0"/>
+        <v>5.1468559999999997</v>
+      </c>
+      <c r="G61" s="6">
         <v>0.15</v>
       </c>
-      <c r="G61" s="6">
+      <c r="H61" s="6">
         <v>3.95</v>
       </c>
-      <c r="H61" s="6">
+      <c r="I61" s="6">
         <v>6.52</v>
       </c>
-      <c r="I61" s="6">
+      <c r="J61" s="6">
         <v>4.3099999999999996</v>
       </c>
-      <c r="J61" s="6">
+      <c r="K61" s="6">
         <v>1.75</v>
       </c>
-      <c r="K61" s="6">
+      <c r="L61" s="6">
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
@@ -4888,26 +3662,30 @@
       <c r="E62" s="7">
         <v>7.79</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="4">
+        <f t="shared" si="0"/>
+        <v>7.009442</v>
+      </c>
+      <c r="G62" s="7">
         <v>0.13</v>
       </c>
-      <c r="G62" s="7">
+      <c r="H62" s="7">
         <v>4.3099999999999996</v>
       </c>
-      <c r="H62" s="7">
+      <c r="I62" s="7">
         <v>9.0399999999999991</v>
       </c>
-      <c r="I62" s="7">
+      <c r="J62" s="7">
         <v>3.12</v>
       </c>
-      <c r="J62" s="7">
+      <c r="K62" s="7">
         <v>0.96</v>
       </c>
-      <c r="K62" s="7">
+      <c r="L62" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
@@ -4923,26 +3701,30 @@
       <c r="E63" s="7">
         <v>7.46</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7125080000000006</v>
+      </c>
+      <c r="G63" s="7">
         <v>0.13</v>
       </c>
-      <c r="G63" s="7">
+      <c r="H63" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H63" s="7">
+      <c r="I63" s="7">
         <v>8.879999999999999</v>
       </c>
-      <c r="I63" s="7">
+      <c r="J63" s="7">
         <v>3.13</v>
       </c>
-      <c r="J63" s="7">
+      <c r="K63" s="7">
         <v>1.165</v>
       </c>
-      <c r="K63" s="7">
+      <c r="L63" s="7">
         <v>8.7499999999999994E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
@@ -4958,26 +3740,30 @@
       <c r="E64" s="7">
         <v>7.3</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="4">
+        <f t="shared" si="0"/>
+        <v>6.5685400000000005</v>
+      </c>
+      <c r="G64" s="7">
         <v>0.12</v>
       </c>
-      <c r="G64" s="7">
+      <c r="H64" s="7">
         <v>4.03</v>
       </c>
-      <c r="H64" s="7">
+      <c r="I64" s="7">
         <v>8.75</v>
       </c>
-      <c r="I64" s="7">
+      <c r="J64" s="7">
         <v>3.15</v>
       </c>
-      <c r="J64" s="7">
+      <c r="K64" s="7">
         <v>1.27</v>
       </c>
-      <c r="K64" s="7">
+      <c r="L64" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
@@ -4993,26 +3779,30 @@
       <c r="E65" s="7">
         <v>7.5449999999999999</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7889910000000002</v>
+      </c>
+      <c r="G65" s="7">
         <v>0.13</v>
       </c>
-      <c r="G65" s="7">
+      <c r="H65" s="7">
         <v>4.1749999999999998</v>
       </c>
-      <c r="H65" s="7">
+      <c r="I65" s="7">
         <v>9.1449999999999996</v>
       </c>
-      <c r="I65" s="7">
+      <c r="J65" s="7">
         <v>3.0049999999999999</v>
       </c>
-      <c r="J65" s="7">
+      <c r="K65" s="7">
         <v>1.0649999999999999</v>
       </c>
-      <c r="K65" s="7">
+      <c r="L65" s="7">
         <v>7.5499999999999998E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
@@ -5028,26 +3818,30 @@
       <c r="E66" s="7">
         <v>7.4700000000000006</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="4">
+        <f t="shared" si="0"/>
+        <v>6.7215060000000006</v>
+      </c>
+      <c r="G66" s="7">
         <v>0.13</v>
       </c>
-      <c r="G66" s="7">
+      <c r="H66" s="7">
         <v>4.1899999999999995</v>
       </c>
-      <c r="H66" s="7">
+      <c r="I66" s="7">
         <v>8.9</v>
       </c>
-      <c r="I66" s="7">
+      <c r="J66" s="7">
         <v>3.0150000000000001</v>
       </c>
-      <c r="J66" s="7">
+      <c r="K66" s="7">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K66" s="7">
+      <c r="L66" s="7">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
@@ -5063,26 +3857,30 @@
       <c r="E67" s="7">
         <v>6.75</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="4">
+        <f t="shared" ref="F67:F97" si="1">0.8998*E67</f>
+        <v>6.0736500000000007</v>
+      </c>
+      <c r="G67" s="7">
         <v>0.12</v>
       </c>
-      <c r="G67" s="7">
+      <c r="H67" s="7">
         <v>3.74</v>
       </c>
-      <c r="H67" s="7">
+      <c r="I67" s="7">
         <v>8.2100000000000009</v>
       </c>
-      <c r="I67" s="7">
+      <c r="J67" s="7">
         <v>3.1</v>
       </c>
-      <c r="J67" s="7">
+      <c r="K67" s="7">
         <v>1.44</v>
       </c>
-      <c r="K67" s="7">
+      <c r="L67" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
@@ -5098,26 +3896,30 @@
       <c r="E68" s="7">
         <v>5.88</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2908239999999997</v>
+      </c>
+      <c r="G68" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G68" s="7">
+      <c r="H68" s="7">
         <v>3.58</v>
       </c>
-      <c r="H68" s="7">
+      <c r="I68" s="7">
         <v>6.64</v>
       </c>
-      <c r="I68" s="7">
+      <c r="J68" s="7">
         <v>4.04</v>
       </c>
-      <c r="J68" s="7">
+      <c r="K68" s="7">
         <v>1.84</v>
       </c>
-      <c r="K68" s="7">
+      <c r="L68" s="7">
         <v>0.126</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
@@ -5133,26 +3935,30 @@
       <c r="E69" s="7">
         <v>5.99</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3898020000000004</v>
+      </c>
+      <c r="G69" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G69" s="7">
+      <c r="H69" s="7">
         <v>3.62</v>
       </c>
-      <c r="H69" s="7">
+      <c r="I69" s="7">
         <v>6.7</v>
       </c>
-      <c r="I69" s="7">
+      <c r="J69" s="7">
         <v>4.1500000000000004</v>
       </c>
-      <c r="J69" s="7">
+      <c r="K69" s="7">
         <v>1.84</v>
       </c>
-      <c r="K69" s="7">
+      <c r="L69" s="7">
         <v>0.13300000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
@@ -5168,26 +3974,30 @@
       <c r="E70" s="7">
         <v>7.38</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6405240000000001</v>
+      </c>
+      <c r="G70" s="7">
         <v>0.13</v>
       </c>
-      <c r="G70" s="7">
+      <c r="H70" s="7">
         <v>4.2</v>
       </c>
-      <c r="H70" s="7">
+      <c r="I70" s="7">
         <v>9.1300000000000008</v>
       </c>
-      <c r="I70" s="7">
+      <c r="J70" s="7">
         <v>2.99</v>
       </c>
-      <c r="J70" s="7">
+      <c r="K70" s="7">
         <v>1.05</v>
       </c>
-      <c r="K70" s="7">
+      <c r="L70" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
@@ -5203,26 +4013,30 @@
       <c r="E71" s="7">
         <v>7.44</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6945120000000005</v>
+      </c>
+      <c r="G71" s="7">
         <v>0.13</v>
       </c>
-      <c r="G71" s="7">
+      <c r="H71" s="7">
         <v>4.04</v>
       </c>
-      <c r="H71" s="7">
+      <c r="I71" s="7">
         <v>8.91</v>
       </c>
-      <c r="I71" s="7">
+      <c r="J71" s="7">
         <v>2.99</v>
       </c>
-      <c r="J71" s="7">
+      <c r="K71" s="7">
         <v>1.26</v>
       </c>
-      <c r="K71" s="7">
+      <c r="L71" s="7">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
@@ -5238,26 +4052,30 @@
       <c r="E72" s="8">
         <v>7.65</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8834700000000009</v>
+      </c>
+      <c r="G72" s="8">
         <v>0.13</v>
       </c>
-      <c r="G72" s="8">
+      <c r="H72" s="8">
         <v>4.335</v>
       </c>
-      <c r="H72" s="8">
+      <c r="I72" s="8">
         <v>9.07</v>
       </c>
-      <c r="I72" s="8">
+      <c r="J72" s="8">
         <v>2.9350000000000001</v>
       </c>
-      <c r="J72" s="8">
+      <c r="K72" s="8">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K72" s="8">
+      <c r="L72" s="8">
         <v>8.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
@@ -5273,26 +4091,30 @@
       <c r="E73" s="7">
         <v>7.63</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8654739999999999</v>
+      </c>
+      <c r="G73" s="7">
         <v>0.13</v>
       </c>
-      <c r="G73" s="7">
+      <c r="H73" s="7">
         <v>4.08</v>
       </c>
-      <c r="H73" s="7">
+      <c r="I73" s="7">
         <v>8.68</v>
       </c>
-      <c r="I73" s="7">
+      <c r="J73" s="7">
         <v>3.06</v>
       </c>
-      <c r="J73" s="7">
+      <c r="K73" s="7">
         <v>1.18</v>
       </c>
-      <c r="K73" s="7">
+      <c r="L73" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
@@ -5308,26 +4130,30 @@
       <c r="E74" s="7">
         <v>7.57</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8114860000000004</v>
+      </c>
+      <c r="G74" s="7">
         <v>0.13</v>
       </c>
-      <c r="G74" s="7">
+      <c r="H74" s="7">
         <v>4.1900000000000004</v>
       </c>
-      <c r="H74" s="7">
+      <c r="I74" s="7">
         <v>8.99</v>
       </c>
-      <c r="I74" s="7">
+      <c r="J74" s="7">
         <v>3.22</v>
       </c>
-      <c r="J74" s="7">
+      <c r="K74" s="7">
         <v>1.06</v>
       </c>
-      <c r="K74" s="7">
+      <c r="L74" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
@@ -5343,26 +4169,30 @@
       <c r="E75" s="7">
         <v>7.48</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7305040000000007</v>
+      </c>
+      <c r="G75" s="7">
         <v>0.13</v>
       </c>
-      <c r="G75" s="7">
+      <c r="H75" s="7">
         <v>3.95</v>
       </c>
-      <c r="H75" s="7">
+      <c r="I75" s="7">
         <v>8.44</v>
       </c>
-      <c r="I75" s="7">
+      <c r="J75" s="7">
         <v>3.165</v>
       </c>
-      <c r="J75" s="7">
+      <c r="K75" s="7">
         <v>1.27</v>
       </c>
-      <c r="K75" s="7">
+      <c r="L75" s="7">
         <v>0.09</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
@@ -5378,26 +4208,30 @@
       <c r="E76" s="7">
         <v>8.25</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4233500000000001</v>
+      </c>
+      <c r="G76" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G76" s="7">
+      <c r="H76" s="7">
         <v>4.7699999999999996</v>
       </c>
-      <c r="H76" s="7">
+      <c r="I76" s="7">
         <v>10.02</v>
       </c>
-      <c r="I76" s="7">
+      <c r="J76" s="7">
         <v>2.8</v>
       </c>
-      <c r="J76" s="7">
+      <c r="K76" s="7">
         <v>1</v>
       </c>
-      <c r="K76" s="7">
+      <c r="L76" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
@@ -5413,26 +4247,30 @@
       <c r="E77" s="7">
         <v>7.91</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1174180000000007</v>
+      </c>
+      <c r="G77" s="7">
         <v>0.13</v>
       </c>
-      <c r="G77" s="7">
+      <c r="H77" s="7">
         <v>4.43</v>
       </c>
-      <c r="H77" s="7">
+      <c r="I77" s="7">
         <v>9.19</v>
       </c>
-      <c r="I77" s="7">
+      <c r="J77" s="7">
         <v>2.83</v>
       </c>
-      <c r="J77" s="7">
+      <c r="K77" s="7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K77" s="7">
+      <c r="L77" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
@@ -5448,26 +4286,30 @@
       <c r="E78" s="7">
         <v>6.48</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8307040000000008</v>
+      </c>
+      <c r="G78" s="7">
         <v>0.11</v>
       </c>
-      <c r="G78" s="7">
+      <c r="H78" s="7">
         <v>3.42</v>
       </c>
-      <c r="H78" s="7">
+      <c r="I78" s="7">
         <v>7.65</v>
       </c>
-      <c r="I78" s="7">
+      <c r="J78" s="7">
         <v>3.47</v>
       </c>
-      <c r="J78" s="7">
+      <c r="K78" s="7">
         <v>1.4</v>
       </c>
-      <c r="K78" s="7">
+      <c r="L78" s="7">
         <v>8.7999999999999995E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
@@ -5483,26 +4325,30 @@
       <c r="E79" s="7">
         <v>6.48</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="4">
+        <f t="shared" si="1"/>
+        <v>5.8307040000000008</v>
+      </c>
+      <c r="G79" s="7">
         <v>0.11499999999999999</v>
       </c>
-      <c r="G79" s="7">
+      <c r="H79" s="7">
         <v>3.4050000000000002</v>
       </c>
-      <c r="H79" s="7">
+      <c r="I79" s="7">
         <v>7.5549999999999997</v>
       </c>
-      <c r="I79" s="7">
+      <c r="J79" s="7">
         <v>3.4750000000000001</v>
       </c>
-      <c r="J79" s="7">
+      <c r="K79" s="7">
         <v>1.4649999999999999</v>
       </c>
-      <c r="K79" s="7">
+      <c r="L79" s="7">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
@@ -5518,26 +4364,30 @@
       <c r="E80" s="8">
         <v>8.254999999999999</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4278489999999993</v>
+      </c>
+      <c r="G80" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G80" s="8">
+      <c r="H80" s="8">
         <v>4.6349999999999998</v>
       </c>
-      <c r="H80" s="8">
+      <c r="I80" s="8">
         <v>9.65</v>
       </c>
-      <c r="I80" s="8">
+      <c r="J80" s="8">
         <v>2.88</v>
       </c>
-      <c r="J80" s="8">
+      <c r="K80" s="8">
         <v>0.94</v>
       </c>
-      <c r="K80" s="8">
+      <c r="L80" s="8">
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
@@ -5553,26 +4403,30 @@
       <c r="E81" s="7">
         <v>7.81</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="4">
+        <f t="shared" si="1"/>
+        <v>7.0274380000000001</v>
+      </c>
+      <c r="G81" s="7">
         <v>0.13</v>
       </c>
-      <c r="G81" s="7">
+      <c r="H81" s="7">
         <v>4.2</v>
       </c>
-      <c r="H81" s="7">
+      <c r="I81" s="7">
         <v>8.76</v>
       </c>
-      <c r="I81" s="7">
+      <c r="J81" s="7">
         <v>2.97</v>
       </c>
-      <c r="J81" s="7">
+      <c r="K81" s="7">
         <v>1.19</v>
       </c>
-      <c r="K81" s="7">
+      <c r="L81" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
@@ -5588,26 +4442,30 @@
       <c r="E82" s="7">
         <v>6.9</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2086200000000007</v>
+      </c>
+      <c r="G82" s="7">
         <v>0.12</v>
       </c>
-      <c r="G82" s="7">
+      <c r="H82" s="7">
         <v>3.97</v>
       </c>
-      <c r="H82" s="7">
+      <c r="I82" s="7">
         <v>7.94</v>
       </c>
-      <c r="I82" s="7">
+      <c r="J82" s="7">
         <v>3.64</v>
       </c>
-      <c r="J82" s="7">
+      <c r="K82" s="7">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K82" s="7">
+      <c r="L82" s="7">
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
@@ -5623,26 +4481,30 @@
       <c r="E83" s="7">
         <v>7.28</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5505440000000004</v>
+      </c>
+      <c r="G83" s="7">
         <v>0.13</v>
       </c>
-      <c r="G83" s="7">
+      <c r="H83" s="7">
         <v>4.05</v>
       </c>
-      <c r="H83" s="7">
+      <c r="I83" s="7">
         <v>7.88</v>
       </c>
-      <c r="I83" s="7">
+      <c r="J83" s="7">
         <v>3.51</v>
       </c>
-      <c r="J83" s="7">
+      <c r="K83" s="7">
         <v>1.24</v>
       </c>
-      <c r="K83" s="7">
+      <c r="L83" s="7">
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
@@ -5658,26 +4520,30 @@
       <c r="E84" s="6">
         <v>3.63</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="4">
+        <f t="shared" si="1"/>
+        <v>3.2662740000000001</v>
+      </c>
+      <c r="G84" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G84" s="6">
+      <c r="H84" s="6">
         <v>1.87</v>
       </c>
-      <c r="H84" s="6">
+      <c r="I84" s="6">
         <v>4.04</v>
       </c>
-      <c r="I84" s="6">
+      <c r="J84" s="6">
         <v>4.1900000000000004</v>
       </c>
-      <c r="J84" s="6">
+      <c r="K84" s="6">
         <v>2.39</v>
       </c>
-      <c r="K84" s="6">
+      <c r="L84" s="6">
         <v>0.111</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
@@ -5693,26 +4559,30 @@
       <c r="E85" s="6">
         <v>5.83</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2458340000000003</v>
+      </c>
+      <c r="G85" s="6">
         <v>0.12</v>
       </c>
-      <c r="G85" s="6">
+      <c r="H85" s="6">
         <v>3.2</v>
       </c>
-      <c r="H85" s="6">
+      <c r="I85" s="6">
         <v>6.02</v>
       </c>
-      <c r="I85" s="6">
+      <c r="J85" s="6">
         <v>4.24</v>
       </c>
-      <c r="J85" s="6">
+      <c r="K85" s="6">
         <v>1.91</v>
       </c>
-      <c r="K85" s="6">
+      <c r="L85" s="6">
         <v>0.16</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
@@ -5728,26 +4598,30 @@
       <c r="E86" s="7">
         <v>5.71</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1378580000000005</v>
+      </c>
+      <c r="G86" s="7">
         <v>0.12</v>
       </c>
-      <c r="G86" s="7">
+      <c r="H86" s="7">
         <v>3.21</v>
       </c>
-      <c r="H86" s="7">
+      <c r="I86" s="7">
         <v>5.96</v>
       </c>
-      <c r="I86" s="7">
+      <c r="J86" s="7">
         <v>4.2</v>
       </c>
-      <c r="J86" s="7">
+      <c r="K86" s="7">
         <v>1.9</v>
       </c>
-      <c r="K86" s="7">
+      <c r="L86" s="7">
         <v>0.158</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
@@ -5763,26 +4637,30 @@
       <c r="E87" s="7">
         <v>7.4049999999999994</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6630189999999994</v>
+      </c>
+      <c r="G87" s="7">
         <v>0.12</v>
       </c>
-      <c r="G87" s="7">
+      <c r="H87" s="7">
         <v>4.0750000000000002</v>
       </c>
-      <c r="H87" s="7">
+      <c r="I87" s="7">
         <v>8.2100000000000009</v>
       </c>
-      <c r="I87" s="7">
+      <c r="J87" s="7">
         <v>3.23</v>
       </c>
-      <c r="J87" s="7">
+      <c r="K87" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K87" s="7">
+      <c r="L87" s="7">
         <v>0.106</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
@@ -5798,26 +4676,30 @@
       <c r="E88" s="7">
         <v>7.2450000000000001</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5190510000000002</v>
+      </c>
+      <c r="G88" s="7">
         <v>0.11499999999999999</v>
       </c>
-      <c r="G88" s="7">
+      <c r="H88" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H88" s="7">
+      <c r="I88" s="7">
         <v>8.1649999999999991</v>
       </c>
-      <c r="I88" s="7">
+      <c r="J88" s="7">
         <v>3.2149999999999999</v>
       </c>
-      <c r="J88" s="7">
+      <c r="K88" s="7">
         <v>1.19</v>
       </c>
-      <c r="K88" s="7">
+      <c r="L88" s="7">
         <v>0.1065</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
@@ -5833,26 +4715,30 @@
       <c r="E89" s="7">
         <v>7.3449999999999998</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6090309999999999</v>
+      </c>
+      <c r="G89" s="7">
         <v>0.11499999999999999</v>
       </c>
-      <c r="G89" s="7">
+      <c r="H89" s="7">
         <v>4.2249999999999996</v>
       </c>
-      <c r="H89" s="7">
+      <c r="I89" s="7">
         <v>8.2449999999999992</v>
       </c>
-      <c r="I89" s="7">
+      <c r="J89" s="7">
         <v>3.0549999999999997</v>
       </c>
-      <c r="J89" s="7">
+      <c r="K89" s="7">
         <v>1.39</v>
       </c>
-      <c r="K89" s="7">
+      <c r="L89" s="7">
         <v>0.1065</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
@@ -5868,26 +4754,30 @@
       <c r="E90" s="7">
         <v>7.05</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3435899999999998</v>
+      </c>
+      <c r="G90" s="7">
         <v>0.11</v>
       </c>
-      <c r="G90" s="7">
+      <c r="H90" s="7">
         <v>3.97</v>
       </c>
-      <c r="H90" s="7">
+      <c r="I90" s="7">
         <v>8.01</v>
       </c>
-      <c r="I90" s="7">
+      <c r="J90" s="7">
         <v>3.13</v>
       </c>
-      <c r="J90" s="7">
+      <c r="K90" s="7">
         <v>1.52</v>
       </c>
-      <c r="K90" s="7">
+      <c r="L90" s="7">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
@@ -5903,26 +4793,30 @@
       <c r="E91" s="7">
         <v>6.88</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1906240000000006</v>
+      </c>
+      <c r="G91" s="7">
         <v>0.12</v>
       </c>
-      <c r="G91" s="7">
+      <c r="H91" s="7">
         <v>3.67</v>
       </c>
-      <c r="H91" s="7">
+      <c r="I91" s="7">
         <v>7.45</v>
       </c>
-      <c r="I91" s="7">
+      <c r="J91" s="7">
         <v>3.4</v>
       </c>
-      <c r="J91" s="7">
+      <c r="K91" s="7">
         <v>1.58</v>
       </c>
-      <c r="K91" s="7">
+      <c r="L91" s="7">
         <v>0.11600000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
@@ -5938,26 +4832,30 @@
       <c r="E92" s="7">
         <v>7.22</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="4">
+        <f t="shared" si="1"/>
+        <v>6.496556</v>
+      </c>
+      <c r="G92" s="7">
         <v>0.13</v>
       </c>
-      <c r="G92" s="7">
+      <c r="H92" s="7">
         <v>3.87</v>
       </c>
-      <c r="H92" s="7">
+      <c r="I92" s="7">
         <v>8.0500000000000007</v>
       </c>
-      <c r="I92" s="7">
+      <c r="J92" s="7">
         <v>3.25</v>
       </c>
-      <c r="J92" s="7">
+      <c r="K92" s="7">
         <v>1.22</v>
       </c>
-      <c r="K92" s="7">
+      <c r="L92" s="7">
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
@@ -5973,26 +4871,30 @@
       <c r="E93" s="7">
         <v>7.3</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5685400000000005</v>
+      </c>
+      <c r="G93" s="7">
         <v>0.13</v>
       </c>
-      <c r="G93" s="7">
+      <c r="H93" s="7">
         <v>3.93</v>
       </c>
-      <c r="H93" s="7">
+      <c r="I93" s="7">
         <v>8.2200000000000006</v>
       </c>
-      <c r="I93" s="7">
+      <c r="J93" s="7">
         <v>3.32</v>
       </c>
-      <c r="J93" s="7">
+      <c r="K93" s="7">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K93" s="7">
+      <c r="L93" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
@@ -6008,26 +4910,30 @@
       <c r="E94" s="7">
         <v>6.82</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="4">
+        <f t="shared" si="1"/>
+        <v>6.1366360000000002</v>
+      </c>
+      <c r="G94" s="7">
         <v>0.12</v>
       </c>
-      <c r="G94" s="7">
+      <c r="H94" s="7">
         <v>3.65</v>
       </c>
-      <c r="H94" s="7">
+      <c r="I94" s="7">
         <v>7.48</v>
       </c>
-      <c r="I94" s="7">
+      <c r="J94" s="7">
         <v>3.49</v>
       </c>
-      <c r="J94" s="7">
+      <c r="K94" s="7">
         <v>1.61</v>
       </c>
-      <c r="K94" s="7">
+      <c r="L94" s="7">
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
@@ -6043,26 +4949,30 @@
       <c r="E95" s="7">
         <v>7.38</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="4">
+        <f t="shared" si="1"/>
+        <v>6.6405240000000001</v>
+      </c>
+      <c r="G95" s="7">
         <v>0.12333333333333334</v>
       </c>
-      <c r="G95" s="7">
+      <c r="H95" s="7">
         <v>4.416666666666667</v>
       </c>
-      <c r="H95" s="7">
+      <c r="I95" s="7">
         <v>8.51</v>
       </c>
-      <c r="I95" s="7">
+      <c r="J95" s="7">
         <v>3.3933333333333331</v>
       </c>
-      <c r="J95" s="7">
+      <c r="K95" s="7">
         <v>1.0066666666666666</v>
       </c>
-      <c r="K95" s="7">
+      <c r="L95" s="7">
         <v>9.0333333333333335E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
@@ -6078,26 +4988,30 @@
       <c r="E96" s="7">
         <v>7.24</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="4">
+        <f t="shared" si="1"/>
+        <v>6.5145520000000001</v>
+      </c>
+      <c r="G96" s="7">
         <v>0.12</v>
       </c>
-      <c r="G96" s="7">
+      <c r="H96" s="7">
         <v>4.32</v>
       </c>
-      <c r="H96" s="7">
+      <c r="I96" s="7">
         <v>8</v>
       </c>
-      <c r="I96" s="7">
+      <c r="J96" s="7">
         <v>3.33</v>
       </c>
-      <c r="J96" s="7">
+      <c r="K96" s="7">
         <v>1.39</v>
       </c>
-      <c r="K96" s="7">
+      <c r="L96" s="7">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
@@ -6113,68 +5027,72 @@
       <c r="E97" s="7">
         <v>7.37</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="4">
+        <f t="shared" si="1"/>
+        <v>6.631526</v>
+      </c>
+      <c r="G97" s="7">
         <v>0.12</v>
       </c>
-      <c r="G97" s="7">
+      <c r="H97" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H97" s="7">
+      <c r="I97" s="7">
         <v>8.1300000000000008</v>
       </c>
-      <c r="I97" s="7">
+      <c r="J97" s="7">
         <v>3.34</v>
       </c>
-      <c r="J97" s="7">
+      <c r="K97" s="7">
         <v>1.48</v>
       </c>
-      <c r="K97" s="7">
+      <c r="L97" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="9"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="9"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="9"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="9"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="9"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="9"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="9"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="9"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="9"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="9"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="9"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="9"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="9"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
@@ -54994,86 +53912,85 @@
       <c r="A16384" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:K26">
+  <conditionalFormatting sqref="B2:L2 B3:E26 G3:L26 F3:F97">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:K35">
+  <conditionalFormatting sqref="B27:E35 G27:L35">
     <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B36:K44">
+  <conditionalFormatting sqref="B36:E44 G36:L44">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54:K54">
+  <conditionalFormatting sqref="B54:E54 G54:L54">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B56:K56">
+  <conditionalFormatting sqref="B56:E56 G56:L56">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B57:K57">
+  <conditionalFormatting sqref="B57:E57 G57:L57">
     <cfRule type="cellIs" dxfId="8" priority="9" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B45:K59">
+  <conditionalFormatting sqref="B45:E59 G45:L59">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B65:K65 B63:K63">
+  <conditionalFormatting sqref="B65:E65 B63:E63 G63:L63 G65:L65">
     <cfRule type="cellIs" dxfId="6" priority="7" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B66:K66">
+  <conditionalFormatting sqref="B66:E66 G66:L66">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B72:K72">
+  <conditionalFormatting sqref="B72:E72 G72:L72">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B75:K75">
+  <conditionalFormatting sqref="B75:E75 G75:L75">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79:K80">
+  <conditionalFormatting sqref="B79:E80 G79:L80">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>99.5</formula>
       <formula>100.5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B60:K83">
+  <conditionalFormatting sqref="B60:E83 G60:L83">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B84:K97">
+  <conditionalFormatting sqref="B84:E97 G84:L97">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55081,8 +53998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB79CBAA-1328-4FA0-90FE-0804CA0B1C38}">
   <dimension ref="A1:O287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
